--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICLAMM/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICLAMM/1/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="209">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -420,7 +420,10 @@
     <t xml:space="preserve">ca8440b42bfdb145</t>
   </si>
   <si>
-    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correzione del dato e re-invio del messaggio</t>
   </si>
   <si>
     <t xml:space="preserve">{   "traceID" : "ca8440b42bfdb145",   "spanID" : "ca8440b42bfdb145",   "type" : "/msg/jwt-validation",   "title" : "Campo token JWT non valido.",   "detail" : "Il campo purpose_of_use non Ã¨ valorizzato",   "status" : 403,   "instance" : "/jwt-mandatory-field-missing",   "workflowInstanceId" : "UNKNOWN_WORKFLOW_ID" }</t>
@@ -496,9 +499,6 @@
   <si>
     <t xml:space="preserve">Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Servizio FSE temporaneamente non disponibile.</t>
@@ -1373,7 +1373,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2447,7 +2447,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -2565,11 +2565,15 @@
   </sheetPr>
   <dimension ref="A1:T646"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.8"/>
@@ -3014,25 +3018,31 @@
       <c r="H14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="I14" s="28"/>
       <c r="J14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="O14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
       <c r="S14" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,39 +3056,45 @@
         <v>49</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="27" t="n">
         <v>45357</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="L15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="O15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
       <c r="S15" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3108,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>45357</v>
@@ -3108,7 +3124,7 @@
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M16" s="29" t="s">
         <v>55</v>
@@ -3126,7 +3142,7 @@
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,16 +3177,24 @@
         <v>55</v>
       </c>
       <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="L17" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="O17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,16 +3229,24 @@
         <v>55</v>
       </c>
       <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="L18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="O18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,16 +3281,24 @@
         <v>55</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="L19" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="O19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,16 +3333,24 @@
         <v>55</v>
       </c>
       <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
+      <c r="L20" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="O20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,16 +3385,24 @@
         <v>55</v>
       </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="L21" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="O21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,16 +3437,24 @@
         <v>55</v>
       </c>
       <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="L22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="O22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,16 +3489,24 @@
         <v>55</v>
       </c>
       <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="O23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,16 +3541,24 @@
         <v>55</v>
       </c>
       <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+      <c r="L24" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="O24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,16 +3593,24 @@
         <v>55</v>
       </c>
       <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="L25" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="O25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,16 +3645,24 @@
         <v>55</v>
       </c>
       <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="L26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="O26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,16 +3697,24 @@
         <v>55</v>
       </c>
       <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="L27" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="O27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,14 +3733,12 @@
       <c r="E28" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="27" t="n">
-        <v>45356</v>
-      </c>
+      <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>143</v>
@@ -3650,7 +3752,7 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,7 +8494,7 @@
       <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -9131,7 +9233,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -9159,7 +9261,7 @@
         <v>208</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICLAMM/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICLAMM/1/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="211">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -423,6 +423,9 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
+    <t xml:space="preserve">Errore di comunicazione con FSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Correzione del dato e re-invio del messaggio</t>
   </si>
   <si>
@@ -522,6 +525,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.248d9f9d99406d6cba77f7cbdf30b56d45a42e6ed22624770a88872aa3bfbadd.cf3e4f03ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore nella compilazione della LDO per FSE</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1373,7 +1379,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2447,7 +2453,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -2566,24 +2572,16 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="91.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="6" style="0" width="27.23"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="17.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="1"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -2601,7 +2599,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -2626,7 +2624,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2651,7 +2649,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -2675,7 +2673,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
@@ -2698,7 +2696,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -2718,7 +2716,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2738,7 +2736,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2755,7 +2753,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
         <v>28</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
         <v>6</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>7</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
         <v>8</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
         <v>9</v>
       </c>
@@ -2993,7 +2991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="n">
         <v>29</v>
       </c>
@@ -3029,23 +3027,25 @@
       <c r="M14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="29"/>
+      <c r="N14" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="O14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
       <c r="S14" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
         <v>37</v>
       </c>
@@ -3056,19 +3056,19 @@
         <v>49</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" s="27" t="n">
         <v>45357</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
@@ -3081,23 +3081,25 @@
       <c r="M15" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="29"/>
+      <c r="N15" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="O15" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
       <c r="S15" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
         <v>45</v>
       </c>
@@ -3108,10 +3110,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>45357</v>
@@ -3130,22 +3132,22 @@
         <v>55</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
         <v>63</v>
       </c>
@@ -3156,22 +3158,22 @@
         <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>55</v>
@@ -3183,21 +3185,23 @@
       <c r="M17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="29"/>
+      <c r="N17" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O17" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
         <v>64</v>
       </c>
@@ -3208,22 +3212,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -3235,21 +3239,23 @@
       <c r="M18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="29"/>
+      <c r="N18" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
         <v>65</v>
       </c>
@@ -3260,22 +3266,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -3287,21 +3293,23 @@
       <c r="M19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="29"/>
+      <c r="N19" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
         <v>66</v>
       </c>
@@ -3312,22 +3320,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -3339,21 +3347,23 @@
       <c r="M20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="29"/>
+      <c r="N20" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>67</v>
       </c>
@@ -3364,22 +3374,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -3391,21 +3401,23 @@
       <c r="M21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="29"/>
+      <c r="N21" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>68</v>
       </c>
@@ -3416,22 +3428,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -3443,21 +3455,23 @@
       <c r="M22" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="29"/>
+      <c r="N22" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
         <v>69</v>
       </c>
@@ -3468,22 +3482,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -3495,21 +3509,23 @@
       <c r="M23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N23" s="29"/>
+      <c r="N23" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
         <v>70</v>
       </c>
@@ -3520,22 +3536,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
@@ -3547,21 +3563,23 @@
       <c r="M24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="29"/>
+      <c r="N24" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
         <v>71</v>
       </c>
@@ -3572,22 +3590,22 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -3599,21 +3617,23 @@
       <c r="M25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="29"/>
+      <c r="N25" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
         <v>72</v>
       </c>
@@ -3624,22 +3644,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
@@ -3651,21 +3671,23 @@
       <c r="M26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="29"/>
+      <c r="N26" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
         <v>73</v>
       </c>
@@ -3676,22 +3698,22 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
@@ -3703,21 +3725,23 @@
       <c r="M27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="29"/>
+      <c r="N27" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="O27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
         <v>74</v>
       </c>
@@ -3728,10 +3752,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
@@ -3741,7 +3765,7 @@
         <v>76</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -3752,10 +3776,10 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
         <v>369</v>
       </c>
@@ -3766,22 +3790,22 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>55</v>
@@ -3799,7 +3823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -3816,7 +3840,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3833,7 +3857,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -3850,7 +3874,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -3867,7 +3891,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3884,7 +3908,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -3901,7 +3925,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -3918,7 +3942,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -3935,7 +3959,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3952,7 +3976,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3969,7 +3993,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3986,7 +4010,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -4003,7 +4027,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -4020,7 +4044,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -4037,7 +4061,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -4054,7 +4078,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -4071,7 +4095,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -4088,7 +4112,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -4105,7 +4129,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4122,7 +4146,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -4139,7 +4163,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -4156,7 +4180,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -4173,7 +4197,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -4190,7 +4214,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -4207,7 +4231,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -4224,7 +4248,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="14"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -4241,7 +4265,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="14"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -4258,7 +4282,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="14"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -4275,7 +4299,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -4292,7 +4316,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="14"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -4309,7 +4333,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="14"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -4326,7 +4350,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="14"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -4343,7 +4367,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="14"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -4360,7 +4384,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="14"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -4377,7 +4401,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -4394,7 +4418,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="14"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -4411,7 +4435,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="14"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -4428,7 +4452,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="14"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -4445,7 +4469,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="14"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -4462,7 +4486,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="14"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -4479,7 +4503,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="14"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -4496,7 +4520,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="14"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -4513,7 +4537,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="14"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -4530,7 +4554,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="14"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -4547,7 +4571,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="14"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -4564,7 +4588,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="14"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -4581,7 +4605,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="14"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -4598,7 +4622,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="14"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -4615,7 +4639,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="14"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -4632,7 +4656,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="14"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -4649,7 +4673,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="14"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -4666,7 +4690,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="14"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -4683,7 +4707,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="14"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -4700,7 +4724,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="14"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -4717,7 +4741,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="14"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -4734,7 +4758,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="14"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -4751,7 +4775,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="14"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -4768,7 +4792,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="14"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -4785,7 +4809,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="14"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -4802,7 +4826,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="14"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -4819,7 +4843,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="14"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -4836,7 +4860,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="14"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -4853,7 +4877,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="14"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -4870,7 +4894,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="14"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -4887,7 +4911,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="14"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -4904,7 +4928,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="14"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -4921,7 +4945,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="14"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -4938,7 +4962,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="14"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -4955,7 +4979,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="14"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -4972,7 +4996,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="14"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -4989,7 +5013,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="14"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -5006,7 +5030,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="14"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -5023,7 +5047,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="14"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -5040,7 +5064,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="14"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -5057,7 +5081,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="14"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -5074,7 +5098,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="14"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -5091,7 +5115,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="14"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -5108,7 +5132,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="14"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -5125,7 +5149,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="14"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -5142,7 +5166,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="14"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -5159,7 +5183,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="14"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -5176,7 +5200,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="14"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -5193,7 +5217,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="14"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -5210,7 +5234,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="14"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -5227,7 +5251,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="14"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -5244,7 +5268,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="14"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -5261,7 +5285,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="14"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -5278,7 +5302,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="14"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -5295,7 +5319,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="14"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -5312,7 +5336,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="14"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -5329,7 +5353,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="14"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -5346,7 +5370,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="14"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -5363,7 +5387,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="14"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -5380,7 +5404,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="14"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -5397,7 +5421,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="14"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -5414,7 +5438,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="14"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -5431,7 +5455,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="14"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -5448,7 +5472,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="14"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -5465,7 +5489,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="14"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -5482,7 +5506,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="14"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -5499,7 +5523,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="14"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -5516,7 +5540,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="14"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -5533,7 +5557,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="14"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -5550,7 +5574,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="14"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -5567,7 +5591,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="14"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -5584,7 +5608,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="14"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -5601,7 +5625,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="14"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -5618,7 +5642,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="14"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -5635,7 +5659,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="14"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -5652,7 +5676,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="14"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -5669,7 +5693,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="14"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -5686,7 +5710,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="14"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -5703,7 +5727,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="14"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -5720,7 +5744,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="14"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -5737,7 +5761,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="14"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -5754,7 +5778,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="14"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -5771,7 +5795,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="14"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
@@ -5788,7 +5812,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="14"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -5805,7 +5829,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="14"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -5822,7 +5846,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="14"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -5839,7 +5863,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="14"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -5856,7 +5880,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="14"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
@@ -5873,7 +5897,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="14"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -5890,7 +5914,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="14"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -5907,7 +5931,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="14"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -5924,7 +5948,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="14"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -5941,7 +5965,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="14"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -5958,7 +5982,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="14"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -5975,7 +5999,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="14"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -5992,7 +6016,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="14"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -6009,7 +6033,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="14"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -6026,7 +6050,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="14"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -6043,7 +6067,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="14"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -6060,7 +6084,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="14"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -6077,7 +6101,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="14"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -6094,7 +6118,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="14"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -6111,7 +6135,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="14"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -6128,7 +6152,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="14"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -6145,7 +6169,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="14"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -6162,7 +6186,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -6179,7 +6203,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -6196,7 +6220,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -6213,7 +6237,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="14"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -6230,7 +6254,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="14"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -6247,7 +6271,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="14"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -6264,7 +6288,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="14"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -6281,7 +6305,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="14"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -6298,7 +6322,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="14"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -6315,7 +6339,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="14"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -6332,7 +6356,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="14"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -6349,7 +6373,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="14"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -6366,7 +6390,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="14"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
@@ -6383,7 +6407,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="14"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -6400,7 +6424,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="14"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
@@ -6417,7 +6441,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="14"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -6434,7 +6458,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="14"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
@@ -6451,7 +6475,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="14"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
@@ -6468,7 +6492,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="14"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
@@ -6485,7 +6509,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="14"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
@@ -6502,7 +6526,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="14"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
@@ -6519,7 +6543,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="14"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
@@ -6536,7 +6560,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="14"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
@@ -6553,7 +6577,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="14"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
@@ -6570,7 +6594,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="14"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
@@ -6587,7 +6611,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="14"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
@@ -6604,7 +6628,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="14"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
@@ -6621,7 +6645,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="14"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
@@ -6638,7 +6662,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="14"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -6655,7 +6679,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="14"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -6672,7 +6696,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="14"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
@@ -6689,7 +6713,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="14"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
@@ -6706,7 +6730,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="14"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
@@ -6723,7 +6747,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="14"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
@@ -6740,7 +6764,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="14"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
@@ -6757,7 +6781,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="14"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
@@ -6774,7 +6798,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="14"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
@@ -6791,7 +6815,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="14"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
@@ -6808,7 +6832,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="14"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
@@ -6825,7 +6849,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="14"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
@@ -6842,7 +6866,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="14"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
@@ -6859,7 +6883,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="14"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
@@ -6876,7 +6900,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="14"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
@@ -6893,7 +6917,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="14"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
@@ -6910,7 +6934,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="14"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
@@ -6927,7 +6951,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="14"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
@@ -6944,7 +6968,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="14"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
@@ -6961,7 +6985,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="14"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -6978,7 +7002,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="14"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -6995,7 +7019,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="14"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
@@ -7012,7 +7036,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="14"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
@@ -7029,7 +7053,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="14"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
@@ -7046,7 +7070,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="14"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
@@ -7063,7 +7087,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="14"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
@@ -7080,7 +7104,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="14"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
@@ -7097,7 +7121,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="14"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
@@ -7114,7 +7138,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="14"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
@@ -7131,7 +7155,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="14"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
@@ -7148,7 +7172,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="14"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
@@ -7165,7 +7189,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="14"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
@@ -7182,7 +7206,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="14"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
@@ -7199,1255 +7223,1255 @@
       <c r="S229" s="2"/>
       <c r="T229" s="14"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T230" s="12"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T231" s="12"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T232" s="12"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T233" s="12"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T234" s="12"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T235" s="12"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T236" s="12"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T237" s="12"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T238" s="12"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T239" s="12"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T240" s="12"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T241" s="12"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T242" s="12"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T243" s="12"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T244" s="12"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T245" s="12"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T246" s="12"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T247" s="12"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T248" s="12"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T249" s="12"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T250" s="12"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T251" s="12"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T252" s="12"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T253" s="12"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T254" s="12"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T255" s="12"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T256" s="12"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T257" s="12"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T258" s="12"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T259" s="12"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T260" s="12"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T261" s="12"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T262" s="12"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T263" s="12"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T264" s="12"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T265" s="12"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T266" s="12"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T267" s="12"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T268" s="12"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T269" s="12"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T270" s="12"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T271" s="12"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T272" s="12"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T273" s="12"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T274" s="12"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T275" s="12"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T276" s="12"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T277" s="12"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T278" s="12"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T279" s="12"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T280" s="12"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T281" s="12"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T282" s="12"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T283" s="12"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T284" s="12"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T285" s="12"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T286" s="12"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T287" s="12"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T288" s="12"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T289" s="12"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T290" s="12"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T291" s="12"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T292" s="12"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T293" s="12"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T294" s="12"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T295" s="12"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T296" s="12"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T297" s="12"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T298" s="12"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T299" s="12"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T300" s="12"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T301" s="12"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T302" s="12"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T303" s="12"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T304" s="12"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T305" s="12"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T306" s="12"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T307" s="12"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T308" s="12"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T309" s="12"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T310" s="12"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T311" s="12"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T312" s="12"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T313" s="12"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T314" s="12"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T315" s="12"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T316" s="12"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T317" s="12"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T318" s="12"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T319" s="12"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T320" s="12"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T321" s="12"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T322" s="12"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T323" s="12"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T324" s="12"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T325" s="12"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T326" s="12"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T327" s="12"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T328" s="12"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T329" s="12"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T330" s="12"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T331" s="12"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T332" s="12"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T333" s="12"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T334" s="12"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T335" s="12"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T336" s="12"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T337" s="12"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T338" s="12"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T339" s="12"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T340" s="12"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T341" s="12"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T342" s="12"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T343" s="12"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T344" s="12"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T345" s="12"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T346" s="12"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T347" s="12"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T348" s="12"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T349" s="12"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T350" s="12"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T351" s="12"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T352" s="12"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T353" s="12"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T354" s="12"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T355" s="12"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T356" s="12"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T357" s="12"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T358" s="12"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T359" s="12"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T360" s="12"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T361" s="12"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T362" s="12"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T363" s="12"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T364" s="12"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T365" s="12"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T366" s="12"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T367" s="12"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T368" s="12"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T369" s="12"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T370" s="12"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T371" s="12"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T372" s="12"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T373" s="12"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T374" s="12"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T375" s="12"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T376" s="12"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T377" s="12"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T378" s="12"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T379" s="12"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T380" s="12"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T381" s="12"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T382" s="12"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T383" s="12"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T384" s="12"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T385" s="12"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T386" s="12"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T387" s="12"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T388" s="12"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T389" s="12"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T390" s="12"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T391" s="12"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T392" s="12"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T393" s="12"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T394" s="12"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T395" s="12"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T396" s="12"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T397" s="12"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T398" s="12"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T399" s="12"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T400" s="12"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T401" s="12"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T402" s="12"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T403" s="12"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T404" s="12"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T405" s="12"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T406" s="12"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T407" s="12"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T408" s="12"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T409" s="12"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T410" s="12"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T411" s="12"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T412" s="12"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T413" s="12"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T414" s="12"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T415" s="12"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T416" s="12"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T417" s="12"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T418" s="12"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T419" s="12"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T420" s="12"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T421" s="12"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T422" s="12"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T423" s="12"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T424" s="12"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T425" s="12"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T426" s="12"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T427" s="12"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T428" s="12"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T429" s="12"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T430" s="12"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T431" s="12"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T432" s="12"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T433" s="12"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T434" s="12"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T435" s="12"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T436" s="12"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T437" s="12"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T438" s="12"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T439" s="12"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T440" s="12"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T441" s="12"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T442" s="12"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T443" s="12"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T444" s="12"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T445" s="12"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T446" s="12"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T447" s="12"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T448" s="12"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T449" s="12"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T450" s="12"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T451" s="12"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T452" s="12"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T453" s="12"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T454" s="12"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T455" s="12"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T456" s="12"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T457" s="12"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T458" s="12"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T459" s="12"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T460" s="12"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T461" s="12"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T462" s="12"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T463" s="12"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T464" s="12"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T465" s="12"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T466" s="12"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T467" s="12"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T468" s="12"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T469" s="12"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T470" s="12"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T471" s="12"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T472" s="12"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T473" s="12"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T474" s="12"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T475" s="12"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T476" s="12"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T477" s="12"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T478" s="12"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T479" s="12"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T480" s="12"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T481" s="12"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T482" s="12"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T483" s="12"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T484" s="12"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T485" s="12"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T486" s="12"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T487" s="12"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T488" s="12"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T489" s="12"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T490" s="12"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T491" s="12"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T492" s="12"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T493" s="12"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T494" s="12"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T495" s="12"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T496" s="12"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T497" s="12"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T498" s="12"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T499" s="12"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T500" s="12"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T501" s="12"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T502" s="12"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T503" s="12"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T504" s="12"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T505" s="12"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T506" s="12"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T507" s="12"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T508" s="12"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T509" s="12"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T510" s="12"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T511" s="12"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T512" s="12"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T513" s="12"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T514" s="12"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T515" s="12"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T516" s="12"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T517" s="12"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T518" s="12"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T519" s="12"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T520" s="12"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T521" s="12"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T522" s="12"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T523" s="12"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T524" s="12"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T525" s="12"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T526" s="12"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T527" s="12"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T528" s="12"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T529" s="12"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T530" s="12"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T531" s="12"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T532" s="12"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T533" s="12"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T534" s="12"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T535" s="12"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T536" s="12"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T537" s="12"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T538" s="12"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T539" s="12"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T540" s="12"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T541" s="12"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T542" s="12"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T543" s="12"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T544" s="12"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T545" s="12"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T546" s="12"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T547" s="12"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T548" s="12"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T549" s="12"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T550" s="12"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T551" s="12"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T552" s="12"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T553" s="12"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T554" s="12"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T555" s="12"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T556" s="12"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T557" s="12"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T558" s="12"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T559" s="12"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T560" s="12"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T561" s="12"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T562" s="12"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T563" s="12"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T564" s="12"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T565" s="12"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T566" s="12"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T567" s="12"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T568" s="12"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T569" s="12"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T570" s="12"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T571" s="12"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T572" s="12"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T573" s="12"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T574" s="12"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T575" s="12"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T576" s="12"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T577" s="12"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T578" s="12"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T579" s="12"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T580" s="12"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T581" s="12"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T582" s="12"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T583" s="12"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T584" s="12"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T585" s="12"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T586" s="12"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T587" s="12"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T588" s="12"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T589" s="12"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T590" s="12"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T591" s="12"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T592" s="12"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T593" s="12"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T594" s="12"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T595" s="12"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T596" s="12"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T597" s="12"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T598" s="12"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T599" s="12"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T600" s="12"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T601" s="12"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T602" s="12"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T603" s="12"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T604" s="12"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T605" s="12"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T606" s="12"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T607" s="12"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T608" s="12"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T609" s="12"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T610" s="12"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T611" s="12"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T612" s="12"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T613" s="12"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T614" s="12"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T615" s="12"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T616" s="12"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T617" s="12"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T618" s="12"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T619" s="12"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T620" s="12"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T621" s="12"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T622" s="12"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T623" s="12"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T624" s="12"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T625" s="12"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T626" s="12"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T627" s="12"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T628" s="12"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T629" s="12"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T630" s="12"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T631" s="12"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T632" s="12"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T633" s="12"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T634" s="12"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T635" s="12"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T636" s="12"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T637" s="12"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T638" s="12"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T639" s="12"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T640" s="12"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T641" s="12"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T642" s="12"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T643" s="12"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T644" s="12"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T645" s="12"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T646" s="12"/>
     </row>
   </sheetData>
@@ -8494,7 +8518,7 @@
       <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -8511,24 +8535,24 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,125 +8560,125 @@
         <v>49</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8662,111 +8686,111 @@
         <v>49</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8774,111 +8798,111 @@
         <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8886,105 +8910,105 @@
         <v>49</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -8998,7 +9022,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -9009,10 +9033,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -9023,10 +9047,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -9037,10 +9061,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -9051,10 +9075,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -9065,10 +9089,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -9079,10 +9103,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -9093,10 +9117,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -9110,7 +9134,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -9121,10 +9145,10 @@
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -9135,10 +9159,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -9149,10 +9173,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -9163,10 +9187,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -9177,10 +9201,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -9191,10 +9215,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -9233,7 +9257,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -9250,7 +9274,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>55</v>
@@ -9258,7 +9282,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>76</v>

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICLAMM/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICLAMM/1/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="212">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -295,13 +295,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-05 10:10:58:886 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1a6e645cd17f9b66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.248d9f9d99406d6cba77f7cbdf30b56d45a42e6ed22624770a88872aa3bfbadd.e02fc3c17d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-18 15:10:23:176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738fdaa31af2f4c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.248d9f9d99406d6cba77f7cbdf30b56d45a42e6ed22624770a88872aa3bfbadd.ed13f819e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.248d9f9d99406d6cba77f7cbdf30b56d45a42e6ed22624770a88872aa3bfbadd.2fe2382f48^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non abbiamo i codici AIC dei farmaci, perciò non possiamo soddisfare le obbligatorietà richieste nella sezione "Terapia_farmacologica_dimissione"</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -420,9 +426,6 @@
     <t xml:space="preserve">ca8440b42bfdb145</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Errore di comunicazione con FSE</t>
   </si>
   <si>
@@ -908,7 +911,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -969,6 +972,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1119,7 +1128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1253,10 +1262,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1379,7 +1392,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2453,7 +2466,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -2576,12 +2589,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="17.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="74.83203125" defaultRowHeight="31.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="1"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -2599,7 +2612,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -2624,7 +2637,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2649,7 +2662,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -2673,7 +2686,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
@@ -2696,7 +2709,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -2716,7 +2729,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2736,7 +2749,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2753,7 +2766,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
         <v>28</v>
       </c>
@@ -2815,7 +2828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
         <v>6</v>
       </c>
@@ -2832,7 +2845,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>45356</v>
+        <v>45369</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>52</v>
@@ -2859,7 +2872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>7</v>
       </c>
@@ -2888,9 +2901,11 @@
         <v>61</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
@@ -2903,7 +2918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
         <v>8</v>
       </c>
@@ -2914,27 +2929,29 @@
         <v>49</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
@@ -2947,7 +2964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
         <v>9</v>
       </c>
@@ -2958,27 +2975,29 @@
         <v>49</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -2991,7 +3010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="n">
         <v>29</v>
       </c>
@@ -3002,19 +3021,19 @@
         <v>49</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="F14" s="27" t="n">
         <v>45357</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="29" t="s">
@@ -3022,30 +3041,30 @@
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
       <c r="S14" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
         <v>37</v>
       </c>
@@ -3056,19 +3075,19 @@
         <v>49</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="33" t="s">
         <v>82</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="F15" s="27" t="n">
         <v>45357</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
@@ -3076,30 +3095,30 @@
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O15" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
       <c r="S15" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
         <v>45</v>
       </c>
@@ -3110,10 +3129,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>45357</v>
@@ -3126,28 +3145,28 @@
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M16" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="34" t="s">
-        <v>89</v>
+      <c r="P16" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
         <v>63</v>
       </c>
@@ -3158,50 +3177,50 @@
         <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O17" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
         <v>64</v>
       </c>
@@ -3212,50 +3231,50 @@
         <v>49</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
         <v>65</v>
       </c>
@@ -3266,50 +3285,50 @@
         <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
         <v>66</v>
       </c>
@@ -3320,50 +3339,50 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>67</v>
       </c>
@@ -3374,50 +3393,50 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>68</v>
       </c>
@@ -3428,50 +3447,50 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
         <v>69</v>
       </c>
@@ -3482,50 +3501,50 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
         <v>70</v>
       </c>
@@ -3536,50 +3555,50 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
         <v>71</v>
       </c>
@@ -3590,50 +3609,50 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
         <v>72</v>
       </c>
@@ -3644,50 +3663,50 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
         <v>73</v>
       </c>
@@ -3698,50 +3717,50 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
         <v>74</v>
       </c>
@@ -3752,20 +3771,20 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -3776,10 +3795,10 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
         <v>369</v>
       </c>
@@ -3790,22 +3809,22 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" s="27" t="n">
         <v>45356</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>55</v>
@@ -3823,7 +3842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -3840,7 +3859,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3857,7 +3876,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -3874,7 +3893,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -3891,7 +3910,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3908,7 +3927,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -3925,7 +3944,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -3942,7 +3961,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -3959,7 +3978,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3976,7 +3995,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3993,7 +4012,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -4010,7 +4029,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -4027,7 +4046,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -4044,7 +4063,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -4061,7 +4080,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -4078,7 +4097,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -4095,7 +4114,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -4112,7 +4131,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -4129,7 +4148,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4146,7 +4165,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -4163,7 +4182,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -4180,7 +4199,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -4197,7 +4216,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -4214,7 +4233,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -4231,7 +4250,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -4248,7 +4267,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="14"/>
     </row>
-    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -4265,7 +4284,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="14"/>
     </row>
-    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -4282,7 +4301,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="14"/>
     </row>
-    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -4299,7 +4318,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -4316,7 +4335,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="14"/>
     </row>
-    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -4333,7 +4352,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="14"/>
     </row>
-    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -4350,7 +4369,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="14"/>
     </row>
-    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -4367,7 +4386,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="14"/>
     </row>
-    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -4384,7 +4403,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="14"/>
     </row>
-    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -4401,7 +4420,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -4418,7 +4437,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="14"/>
     </row>
-    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -4435,7 +4454,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="14"/>
     </row>
-    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -4452,7 +4471,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="14"/>
     </row>
-    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -4469,7 +4488,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="14"/>
     </row>
-    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -4486,7 +4505,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="14"/>
     </row>
-    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -4503,7 +4522,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="14"/>
     </row>
-    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -4520,7 +4539,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="14"/>
     </row>
-    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -4537,7 +4556,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="14"/>
     </row>
-    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -4554,7 +4573,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="14"/>
     </row>
-    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -4571,7 +4590,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="14"/>
     </row>
-    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -4588,7 +4607,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="14"/>
     </row>
-    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -4605,7 +4624,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="14"/>
     </row>
-    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -4622,7 +4641,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="14"/>
     </row>
-    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -4639,7 +4658,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="14"/>
     </row>
-    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -4656,7 +4675,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="14"/>
     </row>
-    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -4673,7 +4692,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="14"/>
     </row>
-    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -4690,7 +4709,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="14"/>
     </row>
-    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -4707,7 +4726,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="14"/>
     </row>
-    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -4724,7 +4743,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="14"/>
     </row>
-    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -4741,7 +4760,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="14"/>
     </row>
-    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -4758,7 +4777,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="14"/>
     </row>
-    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -4775,7 +4794,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="14"/>
     </row>
-    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -4792,7 +4811,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="14"/>
     </row>
-    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -4809,7 +4828,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="14"/>
     </row>
-    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -4826,7 +4845,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="14"/>
     </row>
-    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -4843,7 +4862,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="14"/>
     </row>
-    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -4860,7 +4879,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="14"/>
     </row>
-    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -4877,7 +4896,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="14"/>
     </row>
-    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -4894,7 +4913,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="14"/>
     </row>
-    <row r="93" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -4911,7 +4930,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="14"/>
     </row>
-    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -4928,7 +4947,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="14"/>
     </row>
-    <row r="95" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -4945,7 +4964,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="14"/>
     </row>
-    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -4962,7 +4981,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="14"/>
     </row>
-    <row r="97" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -4979,7 +4998,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="14"/>
     </row>
-    <row r="98" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -4996,7 +5015,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="14"/>
     </row>
-    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -5013,7 +5032,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="14"/>
     </row>
-    <row r="100" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -5030,7 +5049,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="14"/>
     </row>
-    <row r="101" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -5047,7 +5066,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="14"/>
     </row>
-    <row r="102" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -5064,7 +5083,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="14"/>
     </row>
-    <row r="103" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -5081,7 +5100,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="14"/>
     </row>
-    <row r="104" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -5098,7 +5117,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="14"/>
     </row>
-    <row r="105" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -5115,7 +5134,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="14"/>
     </row>
-    <row r="106" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -5132,7 +5151,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="14"/>
     </row>
-    <row r="107" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -5149,7 +5168,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="14"/>
     </row>
-    <row r="108" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -5166,7 +5185,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="14"/>
     </row>
-    <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -5183,7 +5202,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="14"/>
     </row>
-    <row r="110" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -5200,7 +5219,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="14"/>
     </row>
-    <row r="111" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -5217,7 +5236,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="14"/>
     </row>
-    <row r="112" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -5234,7 +5253,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="14"/>
     </row>
-    <row r="113" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -5251,7 +5270,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="14"/>
     </row>
-    <row r="114" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -5268,7 +5287,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="14"/>
     </row>
-    <row r="115" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -5285,7 +5304,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="14"/>
     </row>
-    <row r="116" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -5302,7 +5321,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="14"/>
     </row>
-    <row r="117" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -5319,7 +5338,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="14"/>
     </row>
-    <row r="118" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -5336,7 +5355,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="14"/>
     </row>
-    <row r="119" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -5353,7 +5372,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="14"/>
     </row>
-    <row r="120" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -5370,7 +5389,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="14"/>
     </row>
-    <row r="121" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -5387,7 +5406,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="14"/>
     </row>
-    <row r="122" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -5404,7 +5423,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="14"/>
     </row>
-    <row r="123" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -5421,7 +5440,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="14"/>
     </row>
-    <row r="124" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -5438,7 +5457,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="14"/>
     </row>
-    <row r="125" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -5455,7 +5474,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="14"/>
     </row>
-    <row r="126" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -5472,7 +5491,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="14"/>
     </row>
-    <row r="127" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -5489,7 +5508,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="14"/>
     </row>
-    <row r="128" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -5506,7 +5525,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="14"/>
     </row>
-    <row r="129" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -5523,7 +5542,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="14"/>
     </row>
-    <row r="130" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -5540,7 +5559,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="14"/>
     </row>
-    <row r="131" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -5557,7 +5576,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="14"/>
     </row>
-    <row r="132" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -5574,7 +5593,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="14"/>
     </row>
-    <row r="133" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -5591,7 +5610,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="14"/>
     </row>
-    <row r="134" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -5608,7 +5627,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="14"/>
     </row>
-    <row r="135" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -5625,7 +5644,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="14"/>
     </row>
-    <row r="136" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -5642,7 +5661,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="14"/>
     </row>
-    <row r="137" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -5659,7 +5678,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="14"/>
     </row>
-    <row r="138" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -5676,7 +5695,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="14"/>
     </row>
-    <row r="139" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -5693,7 +5712,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="14"/>
     </row>
-    <row r="140" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -5710,7 +5729,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="14"/>
     </row>
-    <row r="141" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -5727,7 +5746,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="14"/>
     </row>
-    <row r="142" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -5744,7 +5763,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="14"/>
     </row>
-    <row r="143" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -5761,7 +5780,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="14"/>
     </row>
-    <row r="144" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -5778,7 +5797,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="14"/>
     </row>
-    <row r="145" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -5795,7 +5814,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="14"/>
     </row>
-    <row r="146" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
@@ -5812,7 +5831,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="14"/>
     </row>
-    <row r="147" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -5829,7 +5848,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="14"/>
     </row>
-    <row r="148" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -5846,7 +5865,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="14"/>
     </row>
-    <row r="149" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -5863,7 +5882,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="14"/>
     </row>
-    <row r="150" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -5880,7 +5899,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="14"/>
     </row>
-    <row r="151" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
@@ -5897,7 +5916,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="14"/>
     </row>
-    <row r="152" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -5914,7 +5933,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="14"/>
     </row>
-    <row r="153" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -5931,7 +5950,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="14"/>
     </row>
-    <row r="154" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -5948,7 +5967,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="14"/>
     </row>
-    <row r="155" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -5965,7 +5984,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="14"/>
     </row>
-    <row r="156" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -5982,7 +6001,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="14"/>
     </row>
-    <row r="157" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -5999,7 +6018,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="14"/>
     </row>
-    <row r="158" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -6016,7 +6035,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="14"/>
     </row>
-    <row r="159" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -6033,7 +6052,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="14"/>
     </row>
-    <row r="160" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -6050,7 +6069,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="14"/>
     </row>
-    <row r="161" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -6067,7 +6086,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="14"/>
     </row>
-    <row r="162" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -6084,7 +6103,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="14"/>
     </row>
-    <row r="163" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -6101,7 +6120,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="14"/>
     </row>
-    <row r="164" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -6118,7 +6137,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="14"/>
     </row>
-    <row r="165" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -6135,7 +6154,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="14"/>
     </row>
-    <row r="166" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -6152,7 +6171,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="14"/>
     </row>
-    <row r="167" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -6169,7 +6188,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="14"/>
     </row>
-    <row r="168" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -6186,7 +6205,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -6203,7 +6222,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -6220,7 +6239,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -6237,7 +6256,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="14"/>
     </row>
-    <row r="172" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -6254,7 +6273,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="14"/>
     </row>
-    <row r="173" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -6271,7 +6290,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="14"/>
     </row>
-    <row r="174" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -6288,7 +6307,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="14"/>
     </row>
-    <row r="175" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -6305,7 +6324,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="14"/>
     </row>
-    <row r="176" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -6322,7 +6341,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="14"/>
     </row>
-    <row r="177" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -6339,7 +6358,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="14"/>
     </row>
-    <row r="178" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -6356,7 +6375,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="14"/>
     </row>
-    <row r="179" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -6373,7 +6392,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="14"/>
     </row>
-    <row r="180" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -6390,7 +6409,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="14"/>
     </row>
-    <row r="181" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
@@ -6407,7 +6426,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="14"/>
     </row>
-    <row r="182" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -6424,7 +6443,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="14"/>
     </row>
-    <row r="183" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
@@ -6441,7 +6460,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="14"/>
     </row>
-    <row r="184" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -6458,7 +6477,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="14"/>
     </row>
-    <row r="185" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
@@ -6475,7 +6494,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="14"/>
     </row>
-    <row r="186" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
@@ -6492,7 +6511,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="14"/>
     </row>
-    <row r="187" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
@@ -6509,7 +6528,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="14"/>
     </row>
-    <row r="188" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
@@ -6526,7 +6545,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="14"/>
     </row>
-    <row r="189" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
@@ -6543,7 +6562,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="14"/>
     </row>
-    <row r="190" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
@@ -6560,7 +6579,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="14"/>
     </row>
-    <row r="191" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
@@ -6577,7 +6596,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="14"/>
     </row>
-    <row r="192" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
@@ -6594,7 +6613,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="14"/>
     </row>
-    <row r="193" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
@@ -6611,7 +6630,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="14"/>
     </row>
-    <row r="194" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
@@ -6628,7 +6647,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="14"/>
     </row>
-    <row r="195" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
@@ -6645,7 +6664,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="14"/>
     </row>
-    <row r="196" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
@@ -6662,7 +6681,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="14"/>
     </row>
-    <row r="197" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -6679,7 +6698,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="14"/>
     </row>
-    <row r="198" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -6696,7 +6715,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="14"/>
     </row>
-    <row r="199" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
@@ -6713,7 +6732,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="14"/>
     </row>
-    <row r="200" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
@@ -6730,7 +6749,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="14"/>
     </row>
-    <row r="201" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
@@ -6747,7 +6766,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="14"/>
     </row>
-    <row r="202" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
@@ -6764,7 +6783,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="14"/>
     </row>
-    <row r="203" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
@@ -6781,7 +6800,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="14"/>
     </row>
-    <row r="204" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
@@ -6798,7 +6817,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="14"/>
     </row>
-    <row r="205" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
@@ -6815,7 +6834,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="14"/>
     </row>
-    <row r="206" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
@@ -6832,7 +6851,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="14"/>
     </row>
-    <row r="207" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
@@ -6849,7 +6868,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="14"/>
     </row>
-    <row r="208" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
@@ -6866,7 +6885,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="14"/>
     </row>
-    <row r="209" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
@@ -6883,7 +6902,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="14"/>
     </row>
-    <row r="210" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
@@ -6900,7 +6919,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="14"/>
     </row>
-    <row r="211" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
@@ -6917,7 +6936,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="14"/>
     </row>
-    <row r="212" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
@@ -6934,7 +6953,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="14"/>
     </row>
-    <row r="213" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
@@ -6951,7 +6970,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="14"/>
     </row>
-    <row r="214" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
@@ -6968,7 +6987,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="14"/>
     </row>
-    <row r="215" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
@@ -6985,7 +7004,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="14"/>
     </row>
-    <row r="216" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -7002,7 +7021,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="14"/>
     </row>
-    <row r="217" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -7019,7 +7038,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="14"/>
     </row>
-    <row r="218" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
@@ -7036,7 +7055,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="14"/>
     </row>
-    <row r="219" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
@@ -7053,7 +7072,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="14"/>
     </row>
-    <row r="220" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
@@ -7070,7 +7089,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="14"/>
     </row>
-    <row r="221" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
@@ -7087,7 +7106,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="14"/>
     </row>
-    <row r="222" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
@@ -7104,7 +7123,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="14"/>
     </row>
-    <row r="223" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
@@ -7121,7 +7140,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="14"/>
     </row>
-    <row r="224" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
@@ -7138,7 +7157,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="14"/>
     </row>
-    <row r="225" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
@@ -7155,7 +7174,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="14"/>
     </row>
-    <row r="226" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
@@ -7172,7 +7191,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="14"/>
     </row>
-    <row r="227" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
@@ -7189,7 +7208,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="14"/>
     </row>
-    <row r="228" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
@@ -7206,7 +7225,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="14"/>
     </row>
-    <row r="229" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
@@ -7223,1255 +7242,1255 @@
       <c r="S229" s="2"/>
       <c r="T229" s="14"/>
     </row>
-    <row r="230" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T230" s="12"/>
     </row>
-    <row r="231" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T231" s="12"/>
     </row>
-    <row r="232" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T232" s="12"/>
     </row>
-    <row r="233" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T233" s="12"/>
     </row>
-    <row r="234" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T234" s="12"/>
     </row>
-    <row r="235" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T235" s="12"/>
     </row>
-    <row r="236" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T236" s="12"/>
     </row>
-    <row r="237" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T237" s="12"/>
     </row>
-    <row r="238" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T238" s="12"/>
     </row>
-    <row r="239" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T239" s="12"/>
     </row>
-    <row r="240" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T240" s="12"/>
     </row>
-    <row r="241" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T241" s="12"/>
     </row>
-    <row r="242" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T242" s="12"/>
     </row>
-    <row r="243" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T243" s="12"/>
     </row>
-    <row r="244" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T244" s="12"/>
     </row>
-    <row r="245" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T245" s="12"/>
     </row>
-    <row r="246" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T246" s="12"/>
     </row>
-    <row r="247" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T247" s="12"/>
     </row>
-    <row r="248" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T248" s="12"/>
     </row>
-    <row r="249" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T249" s="12"/>
     </row>
-    <row r="250" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T250" s="12"/>
     </row>
-    <row r="251" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T251" s="12"/>
     </row>
-    <row r="252" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T252" s="12"/>
     </row>
-    <row r="253" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T253" s="12"/>
     </row>
-    <row r="254" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T254" s="12"/>
     </row>
-    <row r="255" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T255" s="12"/>
     </row>
-    <row r="256" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T256" s="12"/>
     </row>
-    <row r="257" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T257" s="12"/>
     </row>
-    <row r="258" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T258" s="12"/>
     </row>
-    <row r="259" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T259" s="12"/>
     </row>
-    <row r="260" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T260" s="12"/>
     </row>
-    <row r="261" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T261" s="12"/>
     </row>
-    <row r="262" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T262" s="12"/>
     </row>
-    <row r="263" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T263" s="12"/>
     </row>
-    <row r="264" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T264" s="12"/>
     </row>
-    <row r="265" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T265" s="12"/>
     </row>
-    <row r="266" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T266" s="12"/>
     </row>
-    <row r="267" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T267" s="12"/>
     </row>
-    <row r="268" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T268" s="12"/>
     </row>
-    <row r="269" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T269" s="12"/>
     </row>
-    <row r="270" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T270" s="12"/>
     </row>
-    <row r="271" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T271" s="12"/>
     </row>
-    <row r="272" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T272" s="12"/>
     </row>
-    <row r="273" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T273" s="12"/>
     </row>
-    <row r="274" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T274" s="12"/>
     </row>
-    <row r="275" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T275" s="12"/>
     </row>
-    <row r="276" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T276" s="12"/>
     </row>
-    <row r="277" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T277" s="12"/>
     </row>
-    <row r="278" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T278" s="12"/>
     </row>
-    <row r="279" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T279" s="12"/>
     </row>
-    <row r="280" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T280" s="12"/>
     </row>
-    <row r="281" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T281" s="12"/>
     </row>
-    <row r="282" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T282" s="12"/>
     </row>
-    <row r="283" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T283" s="12"/>
     </row>
-    <row r="284" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T284" s="12"/>
     </row>
-    <row r="285" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T285" s="12"/>
     </row>
-    <row r="286" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T286" s="12"/>
     </row>
-    <row r="287" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T287" s="12"/>
     </row>
-    <row r="288" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T288" s="12"/>
     </row>
-    <row r="289" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T289" s="12"/>
     </row>
-    <row r="290" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T290" s="12"/>
     </row>
-    <row r="291" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T291" s="12"/>
     </row>
-    <row r="292" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T292" s="12"/>
     </row>
-    <row r="293" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T293" s="12"/>
     </row>
-    <row r="294" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T294" s="12"/>
     </row>
-    <row r="295" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T295" s="12"/>
     </row>
-    <row r="296" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T296" s="12"/>
     </row>
-    <row r="297" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T297" s="12"/>
     </row>
-    <row r="298" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T298" s="12"/>
     </row>
-    <row r="299" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T299" s="12"/>
     </row>
-    <row r="300" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T300" s="12"/>
     </row>
-    <row r="301" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T301" s="12"/>
     </row>
-    <row r="302" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T302" s="12"/>
     </row>
-    <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T303" s="12"/>
     </row>
-    <row r="304" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T304" s="12"/>
     </row>
-    <row r="305" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T305" s="12"/>
     </row>
-    <row r="306" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T306" s="12"/>
     </row>
-    <row r="307" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T307" s="12"/>
     </row>
-    <row r="308" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T308" s="12"/>
     </row>
-    <row r="309" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T309" s="12"/>
     </row>
-    <row r="310" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T310" s="12"/>
     </row>
-    <row r="311" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T311" s="12"/>
     </row>
-    <row r="312" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T312" s="12"/>
     </row>
-    <row r="313" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T313" s="12"/>
     </row>
-    <row r="314" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T314" s="12"/>
     </row>
-    <row r="315" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T315" s="12"/>
     </row>
-    <row r="316" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T316" s="12"/>
     </row>
-    <row r="317" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T317" s="12"/>
     </row>
-    <row r="318" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T318" s="12"/>
     </row>
-    <row r="319" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T319" s="12"/>
     </row>
-    <row r="320" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T320" s="12"/>
     </row>
-    <row r="321" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T321" s="12"/>
     </row>
-    <row r="322" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T322" s="12"/>
     </row>
-    <row r="323" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T323" s="12"/>
     </row>
-    <row r="324" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T324" s="12"/>
     </row>
-    <row r="325" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T325" s="12"/>
     </row>
-    <row r="326" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T326" s="12"/>
     </row>
-    <row r="327" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T327" s="12"/>
     </row>
-    <row r="328" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T328" s="12"/>
     </row>
-    <row r="329" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T329" s="12"/>
     </row>
-    <row r="330" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T330" s="12"/>
     </row>
-    <row r="331" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T331" s="12"/>
     </row>
-    <row r="332" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T332" s="12"/>
     </row>
-    <row r="333" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T333" s="12"/>
     </row>
-    <row r="334" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T334" s="12"/>
     </row>
-    <row r="335" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T335" s="12"/>
     </row>
-    <row r="336" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T336" s="12"/>
     </row>
-    <row r="337" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T337" s="12"/>
     </row>
-    <row r="338" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T338" s="12"/>
     </row>
-    <row r="339" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T339" s="12"/>
     </row>
-    <row r="340" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T340" s="12"/>
     </row>
-    <row r="341" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T341" s="12"/>
     </row>
-    <row r="342" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T342" s="12"/>
     </row>
-    <row r="343" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T343" s="12"/>
     </row>
-    <row r="344" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T344" s="12"/>
     </row>
-    <row r="345" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T345" s="12"/>
     </row>
-    <row r="346" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T346" s="12"/>
     </row>
-    <row r="347" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T347" s="12"/>
     </row>
-    <row r="348" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T348" s="12"/>
     </row>
-    <row r="349" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T349" s="12"/>
     </row>
-    <row r="350" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T350" s="12"/>
     </row>
-    <row r="351" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T351" s="12"/>
     </row>
-    <row r="352" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T352" s="12"/>
     </row>
-    <row r="353" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T353" s="12"/>
     </row>
-    <row r="354" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T354" s="12"/>
     </row>
-    <row r="355" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T355" s="12"/>
     </row>
-    <row r="356" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T356" s="12"/>
     </row>
-    <row r="357" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T357" s="12"/>
     </row>
-    <row r="358" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T358" s="12"/>
     </row>
-    <row r="359" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T359" s="12"/>
     </row>
-    <row r="360" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T360" s="12"/>
     </row>
-    <row r="361" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T361" s="12"/>
     </row>
-    <row r="362" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T362" s="12"/>
     </row>
-    <row r="363" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T363" s="12"/>
     </row>
-    <row r="364" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T364" s="12"/>
     </row>
-    <row r="365" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T365" s="12"/>
     </row>
-    <row r="366" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T366" s="12"/>
     </row>
-    <row r="367" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T367" s="12"/>
     </row>
-    <row r="368" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T368" s="12"/>
     </row>
-    <row r="369" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T369" s="12"/>
     </row>
-    <row r="370" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T370" s="12"/>
     </row>
-    <row r="371" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T371" s="12"/>
     </row>
-    <row r="372" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T372" s="12"/>
     </row>
-    <row r="373" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T373" s="12"/>
     </row>
-    <row r="374" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T374" s="12"/>
     </row>
-    <row r="375" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T375" s="12"/>
     </row>
-    <row r="376" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T376" s="12"/>
     </row>
-    <row r="377" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T377" s="12"/>
     </row>
-    <row r="378" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T378" s="12"/>
     </row>
-    <row r="379" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T379" s="12"/>
     </row>
-    <row r="380" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T380" s="12"/>
     </row>
-    <row r="381" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T381" s="12"/>
     </row>
-    <row r="382" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T382" s="12"/>
     </row>
-    <row r="383" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T383" s="12"/>
     </row>
-    <row r="384" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T384" s="12"/>
     </row>
-    <row r="385" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T385" s="12"/>
     </row>
-    <row r="386" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T386" s="12"/>
     </row>
-    <row r="387" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T387" s="12"/>
     </row>
-    <row r="388" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T388" s="12"/>
     </row>
-    <row r="389" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T389" s="12"/>
     </row>
-    <row r="390" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T390" s="12"/>
     </row>
-    <row r="391" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T391" s="12"/>
     </row>
-    <row r="392" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T392" s="12"/>
     </row>
-    <row r="393" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T393" s="12"/>
     </row>
-    <row r="394" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T394" s="12"/>
     </row>
-    <row r="395" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T395" s="12"/>
     </row>
-    <row r="396" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T396" s="12"/>
     </row>
-    <row r="397" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T397" s="12"/>
     </row>
-    <row r="398" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T398" s="12"/>
     </row>
-    <row r="399" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T399" s="12"/>
     </row>
-    <row r="400" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T400" s="12"/>
     </row>
-    <row r="401" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T401" s="12"/>
     </row>
-    <row r="402" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T402" s="12"/>
     </row>
-    <row r="403" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T403" s="12"/>
     </row>
-    <row r="404" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T404" s="12"/>
     </row>
-    <row r="405" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T405" s="12"/>
     </row>
-    <row r="406" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T406" s="12"/>
     </row>
-    <row r="407" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T407" s="12"/>
     </row>
-    <row r="408" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T408" s="12"/>
     </row>
-    <row r="409" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T409" s="12"/>
     </row>
-    <row r="410" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T410" s="12"/>
     </row>
-    <row r="411" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T411" s="12"/>
     </row>
-    <row r="412" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T412" s="12"/>
     </row>
-    <row r="413" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T413" s="12"/>
     </row>
-    <row r="414" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T414" s="12"/>
     </row>
-    <row r="415" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T415" s="12"/>
     </row>
-    <row r="416" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T416" s="12"/>
     </row>
-    <row r="417" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T417" s="12"/>
     </row>
-    <row r="418" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T418" s="12"/>
     </row>
-    <row r="419" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T419" s="12"/>
     </row>
-    <row r="420" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T420" s="12"/>
     </row>
-    <row r="421" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T421" s="12"/>
     </row>
-    <row r="422" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T422" s="12"/>
     </row>
-    <row r="423" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T423" s="12"/>
     </row>
-    <row r="424" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T424" s="12"/>
     </row>
-    <row r="425" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T425" s="12"/>
     </row>
-    <row r="426" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T426" s="12"/>
     </row>
-    <row r="427" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T427" s="12"/>
     </row>
-    <row r="428" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T428" s="12"/>
     </row>
-    <row r="429" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T429" s="12"/>
     </row>
-    <row r="430" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T430" s="12"/>
     </row>
-    <row r="431" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T431" s="12"/>
     </row>
-    <row r="432" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T432" s="12"/>
     </row>
-    <row r="433" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T433" s="12"/>
     </row>
-    <row r="434" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T434" s="12"/>
     </row>
-    <row r="435" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T435" s="12"/>
     </row>
-    <row r="436" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T436" s="12"/>
     </row>
-    <row r="437" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T437" s="12"/>
     </row>
-    <row r="438" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T438" s="12"/>
     </row>
-    <row r="439" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T439" s="12"/>
     </row>
-    <row r="440" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T440" s="12"/>
     </row>
-    <row r="441" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T441" s="12"/>
     </row>
-    <row r="442" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T442" s="12"/>
     </row>
-    <row r="443" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T443" s="12"/>
     </row>
-    <row r="444" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T444" s="12"/>
     </row>
-    <row r="445" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T445" s="12"/>
     </row>
-    <row r="446" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T446" s="12"/>
     </row>
-    <row r="447" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T447" s="12"/>
     </row>
-    <row r="448" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T448" s="12"/>
     </row>
-    <row r="449" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T449" s="12"/>
     </row>
-    <row r="450" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T450" s="12"/>
     </row>
-    <row r="451" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T451" s="12"/>
     </row>
-    <row r="452" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T452" s="12"/>
     </row>
-    <row r="453" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T453" s="12"/>
     </row>
-    <row r="454" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T454" s="12"/>
     </row>
-    <row r="455" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T455" s="12"/>
     </row>
-    <row r="456" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T456" s="12"/>
     </row>
-    <row r="457" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T457" s="12"/>
     </row>
-    <row r="458" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T458" s="12"/>
     </row>
-    <row r="459" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T459" s="12"/>
     </row>
-    <row r="460" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T460" s="12"/>
     </row>
-    <row r="461" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T461" s="12"/>
     </row>
-    <row r="462" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T462" s="12"/>
     </row>
-    <row r="463" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T463" s="12"/>
     </row>
-    <row r="464" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T464" s="12"/>
     </row>
-    <row r="465" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T465" s="12"/>
     </row>
-    <row r="466" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T466" s="12"/>
     </row>
-    <row r="467" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T467" s="12"/>
     </row>
-    <row r="468" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T468" s="12"/>
     </row>
-    <row r="469" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T469" s="12"/>
     </row>
-    <row r="470" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T470" s="12"/>
     </row>
-    <row r="471" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T471" s="12"/>
     </row>
-    <row r="472" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T472" s="12"/>
     </row>
-    <row r="473" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T473" s="12"/>
     </row>
-    <row r="474" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T474" s="12"/>
     </row>
-    <row r="475" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T475" s="12"/>
     </row>
-    <row r="476" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T476" s="12"/>
     </row>
-    <row r="477" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T477" s="12"/>
     </row>
-    <row r="478" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T478" s="12"/>
     </row>
-    <row r="479" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T479" s="12"/>
     </row>
-    <row r="480" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T480" s="12"/>
     </row>
-    <row r="481" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T481" s="12"/>
     </row>
-    <row r="482" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T482" s="12"/>
     </row>
-    <row r="483" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T483" s="12"/>
     </row>
-    <row r="484" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T484" s="12"/>
     </row>
-    <row r="485" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T485" s="12"/>
     </row>
-    <row r="486" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T486" s="12"/>
     </row>
-    <row r="487" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T487" s="12"/>
     </row>
-    <row r="488" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T488" s="12"/>
     </row>
-    <row r="489" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T489" s="12"/>
     </row>
-    <row r="490" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T490" s="12"/>
     </row>
-    <row r="491" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T491" s="12"/>
     </row>
-    <row r="492" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T492" s="12"/>
     </row>
-    <row r="493" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T493" s="12"/>
     </row>
-    <row r="494" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T494" s="12"/>
     </row>
-    <row r="495" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T495" s="12"/>
     </row>
-    <row r="496" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T496" s="12"/>
     </row>
-    <row r="497" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T497" s="12"/>
     </row>
-    <row r="498" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T498" s="12"/>
     </row>
-    <row r="499" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T499" s="12"/>
     </row>
-    <row r="500" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T500" s="12"/>
     </row>
-    <row r="501" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T501" s="12"/>
     </row>
-    <row r="502" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T502" s="12"/>
     </row>
-    <row r="503" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T503" s="12"/>
     </row>
-    <row r="504" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T504" s="12"/>
     </row>
-    <row r="505" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T505" s="12"/>
     </row>
-    <row r="506" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T506" s="12"/>
     </row>
-    <row r="507" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T507" s="12"/>
     </row>
-    <row r="508" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T508" s="12"/>
     </row>
-    <row r="509" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T509" s="12"/>
     </row>
-    <row r="510" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T510" s="12"/>
     </row>
-    <row r="511" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T511" s="12"/>
     </row>
-    <row r="512" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T512" s="12"/>
     </row>
-    <row r="513" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T513" s="12"/>
     </row>
-    <row r="514" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T514" s="12"/>
     </row>
-    <row r="515" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T515" s="12"/>
     </row>
-    <row r="516" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T516" s="12"/>
     </row>
-    <row r="517" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T517" s="12"/>
     </row>
-    <row r="518" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T518" s="12"/>
     </row>
-    <row r="519" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T519" s="12"/>
     </row>
-    <row r="520" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T520" s="12"/>
     </row>
-    <row r="521" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T521" s="12"/>
     </row>
-    <row r="522" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T522" s="12"/>
     </row>
-    <row r="523" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T523" s="12"/>
     </row>
-    <row r="524" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T524" s="12"/>
     </row>
-    <row r="525" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T525" s="12"/>
     </row>
-    <row r="526" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T526" s="12"/>
     </row>
-    <row r="527" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T527" s="12"/>
     </row>
-    <row r="528" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T528" s="12"/>
     </row>
-    <row r="529" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T529" s="12"/>
     </row>
-    <row r="530" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T530" s="12"/>
     </row>
-    <row r="531" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T531" s="12"/>
     </row>
-    <row r="532" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T532" s="12"/>
     </row>
-    <row r="533" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T533" s="12"/>
     </row>
-    <row r="534" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T534" s="12"/>
     </row>
-    <row r="535" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T535" s="12"/>
     </row>
-    <row r="536" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T536" s="12"/>
     </row>
-    <row r="537" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T537" s="12"/>
     </row>
-    <row r="538" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T538" s="12"/>
     </row>
-    <row r="539" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T539" s="12"/>
     </row>
-    <row r="540" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T540" s="12"/>
     </row>
-    <row r="541" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T541" s="12"/>
     </row>
-    <row r="542" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T542" s="12"/>
     </row>
-    <row r="543" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T543" s="12"/>
     </row>
-    <row r="544" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T544" s="12"/>
     </row>
-    <row r="545" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T545" s="12"/>
     </row>
-    <row r="546" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T546" s="12"/>
     </row>
-    <row r="547" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T547" s="12"/>
     </row>
-    <row r="548" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T548" s="12"/>
     </row>
-    <row r="549" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T549" s="12"/>
     </row>
-    <row r="550" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T550" s="12"/>
     </row>
-    <row r="551" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T551" s="12"/>
     </row>
-    <row r="552" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T552" s="12"/>
     </row>
-    <row r="553" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T553" s="12"/>
     </row>
-    <row r="554" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T554" s="12"/>
     </row>
-    <row r="555" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T555" s="12"/>
     </row>
-    <row r="556" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T556" s="12"/>
     </row>
-    <row r="557" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T557" s="12"/>
     </row>
-    <row r="558" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T558" s="12"/>
     </row>
-    <row r="559" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T559" s="12"/>
     </row>
-    <row r="560" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T560" s="12"/>
     </row>
-    <row r="561" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T561" s="12"/>
     </row>
-    <row r="562" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T562" s="12"/>
     </row>
-    <row r="563" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T563" s="12"/>
     </row>
-    <row r="564" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T564" s="12"/>
     </row>
-    <row r="565" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T565" s="12"/>
     </row>
-    <row r="566" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T566" s="12"/>
     </row>
-    <row r="567" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T567" s="12"/>
     </row>
-    <row r="568" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T568" s="12"/>
     </row>
-    <row r="569" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T569" s="12"/>
     </row>
-    <row r="570" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T570" s="12"/>
     </row>
-    <row r="571" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T571" s="12"/>
     </row>
-    <row r="572" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T572" s="12"/>
     </row>
-    <row r="573" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T573" s="12"/>
     </row>
-    <row r="574" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T574" s="12"/>
     </row>
-    <row r="575" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T575" s="12"/>
     </row>
-    <row r="576" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T576" s="12"/>
     </row>
-    <row r="577" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T577" s="12"/>
     </row>
-    <row r="578" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T578" s="12"/>
     </row>
-    <row r="579" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T579" s="12"/>
     </row>
-    <row r="580" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T580" s="12"/>
     </row>
-    <row r="581" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T581" s="12"/>
     </row>
-    <row r="582" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T582" s="12"/>
     </row>
-    <row r="583" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T583" s="12"/>
     </row>
-    <row r="584" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T584" s="12"/>
     </row>
-    <row r="585" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T585" s="12"/>
     </row>
-    <row r="586" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T586" s="12"/>
     </row>
-    <row r="587" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T587" s="12"/>
     </row>
-    <row r="588" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T588" s="12"/>
     </row>
-    <row r="589" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T589" s="12"/>
     </row>
-    <row r="590" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T590" s="12"/>
     </row>
-    <row r="591" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T591" s="12"/>
     </row>
-    <row r="592" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T592" s="12"/>
     </row>
-    <row r="593" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T593" s="12"/>
     </row>
-    <row r="594" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T594" s="12"/>
     </row>
-    <row r="595" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T595" s="12"/>
     </row>
-    <row r="596" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T596" s="12"/>
     </row>
-    <row r="597" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T597" s="12"/>
     </row>
-    <row r="598" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T598" s="12"/>
     </row>
-    <row r="599" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T599" s="12"/>
     </row>
-    <row r="600" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T600" s="12"/>
     </row>
-    <row r="601" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T601" s="12"/>
     </row>
-    <row r="602" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T602" s="12"/>
     </row>
-    <row r="603" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T603" s="12"/>
     </row>
-    <row r="604" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T604" s="12"/>
     </row>
-    <row r="605" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T605" s="12"/>
     </row>
-    <row r="606" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T606" s="12"/>
     </row>
-    <row r="607" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T607" s="12"/>
     </row>
-    <row r="608" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T608" s="12"/>
     </row>
-    <row r="609" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T609" s="12"/>
     </row>
-    <row r="610" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T610" s="12"/>
     </row>
-    <row r="611" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T611" s="12"/>
     </row>
-    <row r="612" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T612" s="12"/>
     </row>
-    <row r="613" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T613" s="12"/>
     </row>
-    <row r="614" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T614" s="12"/>
     </row>
-    <row r="615" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T615" s="12"/>
     </row>
-    <row r="616" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T616" s="12"/>
     </row>
-    <row r="617" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T617" s="12"/>
     </row>
-    <row r="618" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T618" s="12"/>
     </row>
-    <row r="619" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T619" s="12"/>
     </row>
-    <row r="620" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T620" s="12"/>
     </row>
-    <row r="621" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T621" s="12"/>
     </row>
-    <row r="622" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T622" s="12"/>
     </row>
-    <row r="623" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T623" s="12"/>
     </row>
-    <row r="624" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T624" s="12"/>
     </row>
-    <row r="625" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T625" s="12"/>
     </row>
-    <row r="626" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T626" s="12"/>
     </row>
-    <row r="627" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T627" s="12"/>
     </row>
-    <row r="628" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T628" s="12"/>
     </row>
-    <row r="629" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T629" s="12"/>
     </row>
-    <row r="630" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T630" s="12"/>
     </row>
-    <row r="631" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T631" s="12"/>
     </row>
-    <row r="632" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T632" s="12"/>
     </row>
-    <row r="633" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T633" s="12"/>
     </row>
-    <row r="634" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T634" s="12"/>
     </row>
-    <row r="635" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T635" s="12"/>
     </row>
-    <row r="636" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T636" s="12"/>
     </row>
-    <row r="637" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T637" s="12"/>
     </row>
-    <row r="638" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T638" s="12"/>
     </row>
-    <row r="639" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T639" s="12"/>
     </row>
-    <row r="640" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T640" s="12"/>
     </row>
-    <row r="641" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T641" s="12"/>
     </row>
-    <row r="642" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T642" s="12"/>
     </row>
-    <row r="643" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T643" s="12"/>
     </row>
-    <row r="644" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T644" s="12"/>
     </row>
-    <row r="645" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T645" s="12"/>
     </row>
-    <row r="646" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T646" s="12"/>
     </row>
   </sheetData>
@@ -8518,7 +8537,7 @@
       <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -8535,24 +8554,24 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>156</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8560,125 +8579,125 @@
         <v>49</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>158</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>161</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>164</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>167</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>170</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>173</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>176</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>179</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>181</v>
+      <c r="D11" s="36" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,111 +8705,111 @@
         <v>49</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>182</v>
+      <c r="D12" s="36" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>183</v>
+      <c r="D13" s="37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>184</v>
+      <c r="D14" s="36" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>185</v>
+      <c r="D15" s="37" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>186</v>
+      <c r="D16" s="37" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>187</v>
+      <c r="D17" s="37" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>188</v>
+      <c r="D18" s="37" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>190</v>
+      <c r="D19" s="36" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8798,111 +8817,111 @@
         <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>191</v>
+      <c r="D20" s="36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>192</v>
+      <c r="D21" s="37" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>193</v>
+      <c r="D22" s="36" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>194</v>
+      <c r="D23" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>195</v>
+      <c r="D24" s="37" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>196</v>
+      <c r="D25" s="37" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>197</v>
+      <c r="D26" s="37" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>199</v>
+      <c r="D27" s="36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8910,110 +8929,110 @@
         <v>49</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>200</v>
+      <c r="D28" s="36" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>201</v>
+      <c r="D29" s="38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>202</v>
+      <c r="D30" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>203</v>
+      <c r="D31" s="37" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>204</v>
+      <c r="D32" s="37" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>205</v>
+      <c r="D33" s="37" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="35" t="n">
+        <v>199</v>
+      </c>
+      <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>206</v>
+      <c r="D34" s="37" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C35" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="35" t="n">
+      <c r="D35" s="36" t="n">
         <v>204</v>
       </c>
     </row>
@@ -9022,110 +9041,110 @@
         <v>49</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C36" s="36" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="35" t="n">
+      <c r="D36" s="36" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C37" s="36" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="36" t="n">
+      <c r="D37" s="37" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C38" s="36" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="35" t="n">
+      <c r="D38" s="36" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C39" s="36" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="36" t="n">
+      <c r="D39" s="37" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C40" s="36" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="36" t="n">
+      <c r="D40" s="37" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C41" s="36" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="36" t="n">
+      <c r="D41" s="37" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C42" s="36" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="36" t="n">
+      <c r="D42" s="37" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C43" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="35" t="n">
+      <c r="D43" s="36" t="n">
         <v>207</v>
       </c>
     </row>
@@ -9134,96 +9153,96 @@
         <v>49</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C44" s="36" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="35" t="n">
+      <c r="D44" s="36" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C45" s="36" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="36" t="n">
+      <c r="D45" s="37" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C46" s="36" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="35" t="n">
+      <c r="D46" s="36" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C47" s="36" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="36" t="n">
+      <c r="D47" s="37" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C48" s="36" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="36" t="n">
+      <c r="D48" s="37" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C49" s="36" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="37" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="35" t="n">
+        <v>209</v>
+      </c>
+      <c r="C50" s="36" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="36" t="n">
+      <c r="D50" s="37" t="n">
         <v>319</v>
       </c>
     </row>
@@ -9257,7 +9276,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -9265,32 +9284,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>76</v>
+      <c r="A3" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
